--- a/develope/هفتگی/هفتگی.xlsx
+++ b/develope/هفتگی/هفتگی.xlsx
@@ -535,7 +535,7 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="C2">
-            <v>0</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="3">
@@ -545,22 +545,22 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>0</v>
+            <v>36.666666666666664</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0</v>
+            <v>3.3333333333333335</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="8">
@@ -570,42 +570,42 @@
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>6.666666666666667</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>0</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>0</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>0</v>
+            <v>46.666666666666664</v>
           </cell>
         </row>
         <row r="17">
@@ -615,17 +615,17 @@
         </row>
         <row r="18">
           <cell r="C18">
-            <v>0</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>0</v>
+            <v>26.666666666666668</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="21">
@@ -635,12 +635,12 @@
         </row>
         <row r="22">
           <cell r="C22">
-            <v>0</v>
+            <v>26.666666666666668</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
-            <v>0</v>
+            <v>46.666666666666664</v>
           </cell>
         </row>
         <row r="24">
@@ -655,17 +655,17 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>0</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>0</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>0</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="29">
@@ -675,12 +675,12 @@
         </row>
         <row r="30">
           <cell r="C30">
-            <v>0</v>
+            <v>-13.333333333333334</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="32">
@@ -695,7 +695,7 @@
         </row>
         <row r="34">
           <cell r="C34">
-            <v>0</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="35">
@@ -705,27 +705,27 @@
         </row>
         <row r="36">
           <cell r="C36">
-            <v>0</v>
+            <v>36.666666666666664</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>0</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>0</v>
+            <v>-3.3333333333333335</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>0</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>0</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="41">
@@ -776,42 +776,42 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>73.333333333333329</v>
+            <v>6.666666666666667</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>26.666666666666668</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>33.333333333333329</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>73.333333333333329</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>73.333333333333329</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>86.666666666666671</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>86.666666666666671</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>46.666666666666664</v>
+            <v>86.666666666666671</v>
           </cell>
         </row>
         <row r="12">
@@ -821,17 +821,17 @@
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>53.333333333333336</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>23.333333333333332</v>
+            <v>46.666666666666664</v>
           </cell>
         </row>
         <row r="16">
@@ -841,132 +841,132 @@
         </row>
         <row r="17">
           <cell r="C17">
-            <v>0</v>
+            <v>36.666666666666664</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>40</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>100</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>60</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
-            <v>60</v>
+            <v>26.666666666666668</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
-            <v>56.666666666666664</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
-            <v>3.3333333333333335</v>
+            <v>56.666666666666664</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>100</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>73.333333333333329</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
-            <v>60</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>100</v>
+            <v>76.666666666666671</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>-6.666666666666667</v>
+            <v>-3.3333333333333335</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>60</v>
+            <v>56.666666666666664</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>23.333333333333332</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>63.333333333333329</v>
+            <v>-10</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>76.666666666666671</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>-6.666666666666667</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>33.333333333333329</v>
+            <v>66.666666666666657</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>63.333333333333329</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>3.3333333333333335</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-3.3333333333333335</v>
+            <v>53.333333333333336</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>53.333333333333336</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>46.666666666666664</v>
+            <v>-13.333333333333334</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>73.333333333333329</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>50</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>33.333333333333329</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -997,22 +997,22 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="C2">
-            <v>43.333333333333336</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-3.3333333333333335</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>43.333333333333336</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>63.333333333333329</v>
+            <v>26.666666666666668</v>
           </cell>
         </row>
         <row r="6">
@@ -1022,97 +1022,97 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>16.666666666666664</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>33.333333333333329</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>100</v>
+            <v>86.666666666666671</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>66.666666666666657</v>
+            <v>86.666666666666671</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>86.666666666666671</v>
+            <v>46.666666666666664</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>23.333333333333332</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>70</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>20</v>
+            <v>53.333333333333336</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>26.666666666666668</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>100</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>80</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>36.666666666666664</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>80</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>0</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
-            <v>76.666666666666671</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
-            <v>33.333333333333329</v>
+            <v>56.666666666666664</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
-            <v>86.666666666666671</v>
+            <v>3.3333333333333335</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>23.333333333333332</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>16.666666666666664</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="26">
@@ -1122,52 +1122,52 @@
         </row>
         <row r="27">
           <cell r="C27">
-            <v>90</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>0</v>
+            <v>-6.666666666666667</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>43.333333333333336</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>13.333333333333334</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>33.333333333333329</v>
+            <v>63.333333333333329</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>30</v>
+            <v>76.666666666666671</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>10</v>
+            <v>-6.666666666666667</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>50</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>40</v>
+            <v>63.333333333333329</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>0</v>
+            <v>3.3333333333333335</v>
           </cell>
         </row>
         <row r="37">
@@ -1177,27 +1177,27 @@
         </row>
         <row r="38">
           <cell r="C38">
-            <v>0</v>
+            <v>53.333333333333336</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>20</v>
+            <v>46.666666666666664</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>80</v>
+            <v>73.333333333333329</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>6.666666666666667</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>-3.3333333333333335</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
       </sheetData>
@@ -1228,37 +1228,37 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="C2">
-            <v>30</v>
+            <v>43.333333333333336</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>0</v>
+            <v>-3.3333333333333335</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>6.666666666666667</v>
+            <v>43.333333333333336</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>100</v>
+            <v>63.333333333333329</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>16.666666666666664</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>13.333333333333334</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>10</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="9">
@@ -1268,7 +1268,7 @@
         </row>
         <row r="10">
           <cell r="C10">
-            <v>30</v>
+            <v>66.666666666666657</v>
           </cell>
         </row>
         <row r="11">
@@ -1278,122 +1278,122 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>100</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>50</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>10</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>46.666666666666664</v>
+            <v>26.666666666666668</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>0</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>36.666666666666664</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>13.333333333333334</v>
+            <v>36.666666666666664</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>73.333333333333329</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>16.666666666666664</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
-            <v>26.666666666666668</v>
+            <v>76.666666666666671</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
-            <v>23.333333333333332</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
-            <v>56.666666666666664</v>
+            <v>86.666666666666671</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>20</v>
+            <v>23.333333333333332</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>10</v>
+            <v>16.666666666666664</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
-            <v>16.666666666666664</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>76.666666666666671</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
-            <v>-3.3333333333333335</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
-            <v>56.666666666666664</v>
+            <v>43.333333333333336</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>0</v>
+            <v>13.333333333333334</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>-10</v>
+            <v>33.333333333333329</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>33.333333333333329</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>16.666666666666664</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>66.666666666666657</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>13.333333333333334</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="36">
@@ -1403,32 +1403,32 @@
         </row>
         <row r="37">
           <cell r="C37">
-            <v>53.333333333333336</v>
+            <v>-3.3333333333333335</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>16.666666666666664</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
-            <v>-13.333333333333334</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>40</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>0</v>
+            <v>6.666666666666667</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>0</v>
+            <v>-3.3333333333333335</v>
           </cell>
         </row>
       </sheetData>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1745,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>RANK(I2,I$2:I$42)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1759,29 +1759,29 @@
       </c>
       <c r="E2" s="4">
         <f>'[2]نتایج هفتگی'!$C2</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="F2" s="4">
-        <f>'[5]نتایج هفتگی'!$C2</f>
-        <v>30</v>
-      </c>
-      <c r="G2" s="4">
         <f>'[3]نتایج هفتگی'!$C2</f>
         <v>30</v>
       </c>
+      <c r="G2" s="4">
+        <f>'[4]نتایج هفتگی'!$C2</f>
+        <v>30</v>
+      </c>
       <c r="H2" s="4">
-        <f>'[4]نتایج هفتگی'!$C2</f>
+        <f>'[5]نتایج هفتگی'!$C2</f>
         <v>43.333333333333336</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(D2:H2) / 5</f>
-        <v>30.666666666666668</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A42" si="0">RANK(I3,I$2:I$42)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1798,15 +1798,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <f>'[5]نتایج هفتگی'!$C3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
         <f>'[3]نتایج هفتگی'!$C3</f>
         <v>0</v>
       </c>
+      <c r="G3" s="4">
+        <f>'[4]نتایج هفتگی'!$C3</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="4">
-        <f>'[4]نتایج هفتگی'!$C3</f>
+        <f>'[5]نتایج هفتگی'!$C3</f>
         <v>-3.3333333333333335</v>
       </c>
       <c r="I3" s="2">
@@ -1817,7 +1817,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E4" s="4">
         <f>'[2]نتایج هفتگی'!$C4</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F4" s="4">
+        <f>'[3]نتایج هفتگی'!$C4</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'[4]نتایج هفتگی'!$C4</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H4" s="4">
         <f>'[5]نتایج هفتگی'!$C4</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G4" s="4">
-        <f>'[3]نتایج هفتگی'!$C4</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H4" s="4">
-        <f>'[4]نتایج هفتگی'!$C4</f>
         <v>43.333333333333336</v>
       </c>
       <c r="I4" s="2">
         <f>SUM(D4:H4) / 5</f>
-        <v>39.333333333333329</v>
+        <v>46.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1867,23 +1867,23 @@
       </c>
       <c r="E5" s="4">
         <f>'[2]نتایج هفتگی'!$C5</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F5" s="4">
+        <f>'[3]نتایج هفتگی'!$C5</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'[4]نتایج هفتگی'!$C5</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H5" s="4">
         <f>'[5]نتایج هفتگی'!$C5</f>
-        <v>100</v>
-      </c>
-      <c r="G5" s="4">
-        <f>'[3]نتایج هفتگی'!$C5</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="H5" s="4">
-        <f>'[4]نتایج هفتگی'!$C5</f>
         <v>63.333333333333329</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I42" si="1">SUM(D5:H5) / 5</f>
-        <v>58</v>
+        <v>58.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1903,23 +1903,23 @@
       </c>
       <c r="E6" s="4">
         <f>'[2]نتایج هفتگی'!$C6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
-        <f>'[5]نتایج هفتگی'!$C6</f>
+        <f>'[3]نتایج هفتگی'!$C6</f>
         <v>16.666666666666664</v>
       </c>
       <c r="G6" s="4">
-        <f>'[3]نتایج هفتگی'!$C6</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="H6" s="4">
         <f>'[4]نتایج هفتگی'!$C6</f>
         <v>33.333333333333329</v>
       </c>
+      <c r="H6" s="4">
+        <f>'[5]نتایج هفتگی'!$C6</f>
+        <v>33.333333333333329</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="E7" s="4">
         <f>'[2]نتایج هفتگی'!$C7</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F7" s="4">
+        <f>'[3]نتایج هفتگی'!$C7</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'[4]نتایج هفتگی'!$C7</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H7" s="4">
         <f>'[5]نتایج هفتگی'!$C7</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G7" s="4">
-        <f>'[3]نتایج هفتگی'!$C7</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H7" s="4">
-        <f>'[4]نتایج هفتگی'!$C7</f>
         <v>16.666666666666664</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>40.666666666666664</v>
+        <v>43.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1978,15 +1978,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
+        <f>'[3]نتایج هفتگی'!$C8</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <f>'[4]نتایج هفتگی'!$C8</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H8" s="4">
         <f>'[5]نتایج هفتگی'!$C8</f>
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
-        <f>'[3]نتایج هفتگی'!$C8</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H8" s="4">
-        <f>'[4]نتایج هفتگی'!$C8</f>
         <v>33.333333333333329</v>
       </c>
       <c r="I8" s="2">
@@ -1997,7 +1997,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -2011,29 +2011,29 @@
       </c>
       <c r="E9" s="4">
         <f>'[2]نتایج هفتگی'!$C9</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F9" s="4">
+        <f>'[3]نتایج هفتگی'!$C9</f>
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <f>'[4]نتایج هفتگی'!$C9</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H9" s="4">
         <f>'[5]نتایج هفتگی'!$C9</f>
         <v>100</v>
       </c>
-      <c r="G9" s="4">
-        <f>'[3]نتایج هفتگی'!$C9</f>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H9" s="4">
-        <f>'[4]نتایج هفتگی'!$C9</f>
-        <v>100</v>
-      </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>74.666666666666671</v>
+        <v>81.333333333333343</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -2047,29 +2047,29 @@
       </c>
       <c r="E10" s="4">
         <f>'[2]نتایج هفتگی'!$C10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4">
+        <f>'[3]نتایج هفتگی'!$C10</f>
+        <v>30</v>
+      </c>
+      <c r="G10" s="4">
+        <f>'[4]نتایج هفتگی'!$C10</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H10" s="4">
         <f>'[5]نتایج هفتگی'!$C10</f>
-        <v>30</v>
-      </c>
-      <c r="G10" s="4">
-        <f>'[3]نتایج هفتگی'!$C10</f>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H10" s="4">
-        <f>'[4]نتایج هفتگی'!$C10</f>
         <v>66.666666666666657</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>52.666666666666671</v>
+        <v>56.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -2083,23 +2083,23 @@
       </c>
       <c r="E11" s="4">
         <f>'[2]نتایج هفتگی'!$C11</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F11" s="4">
+        <f>'[3]نتایج هفتگی'!$C11</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G11" s="4">
+        <f>'[4]نتایج هفتگی'!$C11</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H11" s="4">
         <f>'[5]نتایج هفتگی'!$C11</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="G11" s="4">
-        <f>'[3]نتایج هفتگی'!$C11</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H11" s="4">
-        <f>'[4]نتایج هفتگی'!$C11</f>
-        <v>86.666666666666671</v>
-      </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <v>54.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2119,29 +2119,29 @@
       </c>
       <c r="E12" s="4">
         <f>'[2]نتایج هفتگی'!$C12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
-        <f>'[5]نتایج هفتگی'!$C12</f>
-        <v>100</v>
-      </c>
-      <c r="G12" s="4">
         <f>'[3]نتایج هفتگی'!$C12</f>
         <v>100</v>
       </c>
+      <c r="G12" s="4">
+        <f>'[4]نتایج هفتگی'!$C12</f>
+        <v>100</v>
+      </c>
       <c r="H12" s="4">
-        <f>'[4]نتایج هفتگی'!$C12</f>
+        <f>'[5]نتایج هفتگی'!$C12</f>
         <v>23.333333333333332</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>64.666666666666657</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -2155,29 +2155,29 @@
       </c>
       <c r="E13" s="4">
         <f>'[2]نتایج هفتگی'!$C13</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F13" s="4">
+        <f>'[3]نتایج هفتگی'!$C13</f>
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
+        <f>'[4]نتایج هفتگی'!$C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <f>'[5]نتایج هفتگی'!$C13</f>
-        <v>50</v>
-      </c>
-      <c r="G13" s="4">
-        <f>'[3]نتایج هفتگی'!$C13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f>'[4]نتایج هفتگی'!$C13</f>
         <v>70</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>43.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -2191,29 +2191,29 @@
       </c>
       <c r="E14" s="4">
         <f>'[2]نتایج هفتگی'!$C14</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F14" s="4">
+        <f>'[3]نتایج هفتگی'!$C14</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <f>'[4]نتایج هفتگی'!$C14</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="H14" s="4">
         <f>'[5]نتایج هفتگی'!$C14</f>
-        <v>10</v>
-      </c>
-      <c r="G14" s="4">
-        <f>'[3]نتایج هفتگی'!$C14</f>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="H14" s="4">
-        <f>'[4]نتایج هفتگی'!$C14</f>
         <v>20</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>31.333333333333332</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -2227,29 +2227,29 @@
       </c>
       <c r="E15" s="4">
         <f>'[2]نتایج هفتگی'!$C15</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F15" s="4">
+        <f>'[3]نتایج هفتگی'!$C15</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G15" s="4">
+        <f>'[4]نتایج هفتگی'!$C15</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H15" s="4">
         <f>'[5]نتایج هفتگی'!$C15</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="G15" s="4">
-        <f>'[3]نتایج هفتگی'!$C15</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="H15" s="4">
-        <f>'[4]نتایج هفتگی'!$C15</f>
         <v>26.666666666666668</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28.666666666666664</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -2263,23 +2263,23 @@
       </c>
       <c r="E16" s="4">
         <f>'[2]نتایج هفتگی'!$C16</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F16" s="4">
-        <f>'[5]نتایج هفتگی'!$C16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
         <f>'[3]نتایج هفتگی'!$C16</f>
         <v>0</v>
       </c>
+      <c r="G16" s="4">
+        <f>'[4]نتایج هفتگی'!$C16</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="4">
-        <f>'[4]نتایج هفتگی'!$C16</f>
+        <f>'[5]نتایج هفتگی'!$C16</f>
         <v>100</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29.333333333333332</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2302,15 +2302,15 @@
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>'[3]نتایج هفتگی'!$C17</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G17" s="4">
+        <f>'[4]نتایج هفتگی'!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <f>'[5]نتایج هفتگی'!$C17</f>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="G17" s="4">
-        <f>'[3]نتایج هفتگی'!$C17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f>'[4]نتایج هفتگی'!$C17</f>
         <v>80</v>
       </c>
       <c r="I17" s="2">
@@ -2321,7 +2321,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
@@ -2335,23 +2335,23 @@
       </c>
       <c r="E18" s="4">
         <f>'[2]نتایج هفتگی'!$C18</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4">
+        <f>'[3]نتایج هفتگی'!$C18</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G18" s="4">
+        <f>'[4]نتایج هفتگی'!$C18</f>
+        <v>40</v>
+      </c>
+      <c r="H18" s="4">
         <f>'[5]نتایج هفتگی'!$C18</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G18" s="4">
-        <f>'[3]نتایج هفتگی'!$C18</f>
-        <v>40</v>
-      </c>
-      <c r="H18" s="4">
-        <f>'[4]نتایج هفتگی'!$C18</f>
         <v>36.666666666666664</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>27.333333333333332</v>
+        <v>31.333333333333332</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2371,23 +2371,23 @@
       </c>
       <c r="E19" s="4">
         <f>'[2]نتایج هفتگی'!$C19</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F19" s="4">
+        <f>'[3]نتایج هفتگی'!$C19</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G19" s="4">
+        <f>'[4]نتایج هفتگی'!$C19</f>
+        <v>100</v>
+      </c>
+      <c r="H19" s="4">
         <f>'[5]نتایج هفتگی'!$C19</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="G19" s="4">
-        <f>'[3]نتایج هفتگی'!$C19</f>
-        <v>100</v>
-      </c>
-      <c r="H19" s="4">
-        <f>'[4]نتایج هفتگی'!$C19</f>
         <v>80</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>70.666666666666657</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2407,23 +2407,23 @@
       </c>
       <c r="E20" s="4">
         <f>'[2]نتایج هفتگی'!$C20</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <f>'[3]نتایج هفتگی'!$C20</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G20" s="4">
+        <f>'[4]نتایج هفتگی'!$C20</f>
+        <v>60</v>
+      </c>
+      <c r="H20" s="4">
+        <f>'[5]نتایج هفتگی'!$C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="4">
-        <f>'[5]نتایج هفتگی'!$C20</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G20" s="4">
-        <f>'[3]نتایج هفتگی'!$C20</f>
-        <v>60</v>
-      </c>
-      <c r="H20" s="4">
-        <f>'[4]نتایج هفتگی'!$C20</f>
-        <v>0</v>
-      </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>35.333333333333329</v>
+        <v>37.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2446,15 +2446,15 @@
         <v>0</v>
       </c>
       <c r="F21" s="4">
+        <f>'[3]نتایج هفتگی'!$C21</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G21" s="4">
+        <f>'[4]نتایج هفتگی'!$C21</f>
+        <v>60</v>
+      </c>
+      <c r="H21" s="4">
         <f>'[5]نتایج هفتگی'!$C21</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="G21" s="4">
-        <f>'[3]نتایج هفتگی'!$C21</f>
-        <v>60</v>
-      </c>
-      <c r="H21" s="4">
-        <f>'[4]نتایج هفتگی'!$C21</f>
         <v>76.666666666666671</v>
       </c>
       <c r="I21" s="2">
@@ -2465,7 +2465,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -2479,29 +2479,29 @@
       </c>
       <c r="E22" s="4">
         <f>'[2]نتایج هفتگی'!$C22</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F22" s="4">
+        <f>'[3]نتایج هفتگی'!$C22</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G22" s="4">
+        <f>'[4]نتایج هفتگی'!$C22</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="H22" s="4">
         <f>'[5]نتایج هفتگی'!$C22</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="G22" s="4">
-        <f>'[3]نتایج هفتگی'!$C22</f>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="H22" s="4">
-        <f>'[4]نتایج هفتگی'!$C22</f>
         <v>33.333333333333329</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>26.666666666666664</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
@@ -2515,23 +2515,23 @@
       </c>
       <c r="E23" s="4">
         <f>'[2]نتایج هفتگی'!$C23</f>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F23" s="4">
+        <f>'[3]نتایج هفتگی'!$C23</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G23" s="4">
+        <f>'[4]نتایج هفتگی'!$C23</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H23" s="4">
         <f>'[5]نتایج هفتگی'!$C23</f>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="G23" s="4">
-        <f>'[3]نتایج هفتگی'!$C23</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H23" s="4">
-        <f>'[4]نتایج هفتگی'!$C23</f>
         <v>86.666666666666671</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>51.333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2554,15 +2554,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="4">
+        <f>'[3]نتایج هفتگی'!$C24</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
+        <f>'[4]نتایج هفتگی'!$C24</f>
+        <v>100</v>
+      </c>
+      <c r="H24" s="4">
         <f>'[5]نتایج هفتگی'!$C24</f>
-        <v>20</v>
-      </c>
-      <c r="G24" s="4">
-        <f>'[3]نتایج هفتگی'!$C24</f>
-        <v>100</v>
-      </c>
-      <c r="H24" s="4">
-        <f>'[4]نتایج هفتگی'!$C24</f>
         <v>23.333333333333332</v>
       </c>
       <c r="I24" s="2">
@@ -2590,15 +2590,15 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
+        <f>'[3]نتایج هفتگی'!$C25</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <f>'[4]نتایج هفتگی'!$C25</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H25" s="4">
         <f>'[5]نتایج هفتگی'!$C25</f>
-        <v>10</v>
-      </c>
-      <c r="G25" s="4">
-        <f>'[3]نتایج هفتگی'!$C25</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H25" s="4">
-        <f>'[4]نتایج هفتگی'!$C25</f>
         <v>16.666666666666664</v>
       </c>
       <c r="I25" s="2">
@@ -2609,7 +2609,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
@@ -2623,29 +2623,29 @@
       </c>
       <c r="E26" s="4">
         <f>'[2]نتایج هفتگی'!$C26</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F26" s="4">
-        <f>'[5]نتایج هفتگی'!$C26</f>
+        <f>'[3]نتایج هفتگی'!$C26</f>
         <v>16.666666666666664</v>
       </c>
       <c r="G26" s="4">
-        <f>'[3]نتایج هفتگی'!$C26</f>
-        <v>60</v>
-      </c>
-      <c r="H26" s="4">
         <f>'[4]نتایج هفتگی'!$C26</f>
         <v>60</v>
       </c>
+      <c r="H26" s="4">
+        <f>'[5]نتایج هفتگی'!$C26</f>
+        <v>60</v>
+      </c>
       <c r="I26" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>44.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -2659,29 +2659,29 @@
       </c>
       <c r="E27" s="4">
         <f>'[2]نتایج هفتگی'!$C27</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
+        <f>'[3]نتایج هفتگی'!$C27</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G27" s="4">
+        <f>'[4]نتایج هفتگی'!$C27</f>
+        <v>100</v>
+      </c>
+      <c r="H27" s="4">
         <f>'[5]نتایج هفتگی'!$C27</f>
-        <v>76.666666666666671</v>
-      </c>
-      <c r="G27" s="4">
-        <f>'[3]نتایج هفتگی'!$C27</f>
-        <v>100</v>
-      </c>
-      <c r="H27" s="4">
-        <f>'[4]نتایج هفتگی'!$C27</f>
         <v>90</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="1"/>
-        <v>73.333333333333343</v>
+        <v>85.333333333333343</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
@@ -2695,29 +2695,29 @@
       </c>
       <c r="E28" s="4">
         <f>'[2]نتایج هفتگی'!$C28</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F28" s="4">
+        <f>'[3]نتایج هفتگی'!$C28</f>
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="G28" s="4">
+        <f>'[4]نتایج هفتگی'!$C28</f>
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="H28" s="4">
+        <f>'[5]نتایج هفتگی'!$C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="4">
-        <f>'[5]نتایج هفتگی'!$C28</f>
-        <v>-3.3333333333333335</v>
-      </c>
-      <c r="G28" s="4">
-        <f>'[3]نتایج هفتگی'!$C28</f>
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="H28" s="4">
-        <f>'[4]نتایج هفتگی'!$C28</f>
-        <v>0</v>
-      </c>
       <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -2734,15 +2734,15 @@
         <v>0</v>
       </c>
       <c r="F29" s="4">
+        <f>'[3]نتایج هفتگی'!$C29</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G29" s="4">
+        <f>'[4]نتایج هفتگی'!$C29</f>
+        <v>60</v>
+      </c>
+      <c r="H29" s="4">
         <f>'[5]نتایج هفتگی'!$C29</f>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="G29" s="4">
-        <f>'[3]نتایج هفتگی'!$C29</f>
-        <v>60</v>
-      </c>
-      <c r="H29" s="4">
-        <f>'[4]نتایج هفتگی'!$C29</f>
         <v>43.333333333333336</v>
       </c>
       <c r="I29" s="2">
@@ -2753,7 +2753,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -2767,29 +2767,29 @@
       </c>
       <c r="E30" s="4">
         <f>'[2]نتایج هفتگی'!$C30</f>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="F30" s="4">
+        <f>'[3]نتایج هفتگی'!$C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
+        <f>'[4]نتایج هفتگی'!$C30</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H30" s="4">
         <f>'[5]نتایج هفتگی'!$C30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <f>'[3]نتایج هفتگی'!$C30</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="H30" s="4">
-        <f>'[4]نتایج هفتگی'!$C30</f>
         <v>13.333333333333334</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="1"/>
-        <v>24.666666666666664</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
@@ -2803,29 +2803,29 @@
       </c>
       <c r="E31" s="4">
         <f>'[2]نتایج هفتگی'!$C31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" s="4">
+        <f>'[3]نتایج هفتگی'!$C31</f>
+        <v>-10</v>
+      </c>
+      <c r="G31" s="4">
+        <f>'[4]نتایج هفتگی'!$C31</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="H31" s="4">
         <f>'[5]نتایج هفتگی'!$C31</f>
-        <v>-10</v>
-      </c>
-      <c r="G31" s="4">
-        <f>'[3]نتایج هفتگی'!$C31</f>
-        <v>63.333333333333329</v>
-      </c>
-      <c r="H31" s="4">
-        <f>'[4]نتایج هفتگی'!$C31</f>
         <v>33.333333333333329</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>31.333333333333332</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
@@ -2842,15 +2842,15 @@
         <v>0</v>
       </c>
       <c r="F32" s="4">
+        <f>'[3]نتایج هفتگی'!$C32</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G32" s="4">
+        <f>'[4]نتایج هفتگی'!$C32</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H32" s="4">
         <f>'[5]نتایج هفتگی'!$C32</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="G32" s="4">
-        <f>'[3]نتایج هفتگی'!$C32</f>
-        <v>76.666666666666671</v>
-      </c>
-      <c r="H32" s="4">
-        <f>'[4]نتایج هفتگی'!$C32</f>
         <v>30</v>
       </c>
       <c r="I32" s="2">
@@ -2878,15 +2878,15 @@
         <v>0</v>
       </c>
       <c r="F33" s="4">
+        <f>'[3]نتایج هفتگی'!$C33</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G33" s="4">
+        <f>'[4]نتایج هفتگی'!$C33</f>
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="H33" s="4">
         <f>'[5]نتایج هفتگی'!$C33</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G33" s="4">
-        <f>'[3]نتایج هفتگی'!$C33</f>
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="H33" s="4">
-        <f>'[4]نتایج هفتگی'!$C33</f>
         <v>10</v>
       </c>
       <c r="I33" s="2">
@@ -2897,7 +2897,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
@@ -2911,29 +2911,29 @@
       </c>
       <c r="E34" s="4">
         <f>'[2]نتایج هفتگی'!$C34</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4">
+        <f>'[3]نتایج هفتگی'!$C34</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G34" s="4">
+        <f>'[4]نتایج هفتگی'!$C34</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H34" s="4">
         <f>'[5]نتایج هفتگی'!$C34</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="G34" s="4">
-        <f>'[3]نتایج هفتگی'!$C34</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="H34" s="4">
-        <f>'[4]نتایج هفتگی'!$C34</f>
         <v>50</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -2950,15 +2950,15 @@
         <v>0</v>
       </c>
       <c r="F35" s="4">
+        <f>'[3]نتایج هفتگی'!$C35</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G35" s="4">
+        <f>'[4]نتایج هفتگی'!$C35</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="H35" s="4">
         <f>'[5]نتایج هفتگی'!$C35</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G35" s="4">
-        <f>'[3]نتایج هفتگی'!$C35</f>
-        <v>63.333333333333329</v>
-      </c>
-      <c r="H35" s="4">
-        <f>'[4]نتایج هفتگی'!$C35</f>
         <v>40</v>
       </c>
       <c r="I35" s="2">
@@ -2969,7 +2969,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
@@ -2983,29 +2983,29 @@
       </c>
       <c r="E36" s="4">
         <f>'[2]نتایج هفتگی'!$C36</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F36" s="4">
+        <f>'[3]نتایج هفتگی'!$C36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
+        <f>'[4]نتایج هفتگی'!$C36</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H36" s="4">
         <f>'[5]نتایج هفتگی'!$C36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="4">
-        <f>'[3]نتایج هفتگی'!$C36</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H36" s="4">
-        <f>'[4]نتایج هفتگی'!$C36</f>
-        <v>0</v>
-      </c>
       <c r="I36" s="2">
         <f t="shared" si="1"/>
-        <v>20.666666666666664</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>36</v>
@@ -3019,29 +3019,29 @@
       </c>
       <c r="E37" s="4">
         <f>'[2]نتایج هفتگی'!$C37</f>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F37" s="4">
-        <f>'[5]نتایج هفتگی'!$C37</f>
+        <f>'[3]نتایج هفتگی'!$C37</f>
         <v>53.333333333333336</v>
       </c>
       <c r="G37" s="4">
-        <f>'[3]نتایج هفتگی'!$C37</f>
-        <v>-3.3333333333333335</v>
-      </c>
-      <c r="H37" s="4">
         <f>'[4]نتایج هفتگی'!$C37</f>
         <v>-3.3333333333333335</v>
       </c>
+      <c r="H37" s="4">
+        <f>'[5]نتایج هفتگی'!$C37</f>
+        <v>-3.3333333333333335</v>
+      </c>
       <c r="I37" s="2">
         <f t="shared" si="1"/>
-        <v>19.333333333333336</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
@@ -3055,23 +3055,23 @@
       </c>
       <c r="E38" s="4">
         <f>'[2]نتایج هفتگی'!$C38</f>
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="F38" s="4">
+        <f>'[3]نتایج هفتگی'!$C38</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G38" s="4">
+        <f>'[4]نتایج هفتگی'!$C38</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="H38" s="4">
+        <f>'[5]نتایج هفتگی'!$C38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="4">
-        <f>'[5]نتایج هفتگی'!$C38</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G38" s="4">
-        <f>'[3]نتایج هفتگی'!$C38</f>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="H38" s="4">
-        <f>'[4]نتایج هفتگی'!$C38</f>
-        <v>0</v>
-      </c>
       <c r="I38" s="2">
         <f t="shared" si="1"/>
-        <v>24.666666666666668</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3091,23 +3091,23 @@
       </c>
       <c r="E39" s="4">
         <f>'[2]نتایج هفتگی'!$C39</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4">
+        <f>'[3]نتایج هفتگی'!$C39</f>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="G39" s="4">
+        <f>'[4]نتایج هفتگی'!$C39</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H39" s="4">
         <f>'[5]نتایج هفتگی'!$C39</f>
-        <v>-13.333333333333334</v>
-      </c>
-      <c r="G39" s="4">
-        <f>'[3]نتایج هفتگی'!$C39</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H39" s="4">
-        <f>'[4]نتایج هفتگی'!$C39</f>
         <v>20</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="1"/>
-        <v>22.666666666666664</v>
+        <v>24.666666666666664</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3127,29 +3127,29 @@
       </c>
       <c r="E40" s="4">
         <f>'[2]نتایج هفتگی'!$C40</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F40" s="4">
+        <f>'[3]نتایج هفتگی'!$C40</f>
+        <v>40</v>
+      </c>
+      <c r="G40" s="4">
+        <f>'[4]نتایج هفتگی'!$C40</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H40" s="4">
         <f>'[5]نتایج هفتگی'!$C40</f>
-        <v>40</v>
-      </c>
-      <c r="G40" s="4">
-        <f>'[3]نتایج هفتگی'!$C40</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H40" s="4">
-        <f>'[4]نتایج هفتگی'!$C40</f>
         <v>80</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>58.666666666666664</v>
+        <v>62.666666666666664</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
@@ -3166,15 +3166,15 @@
         <v>0</v>
       </c>
       <c r="F41" s="4">
+        <f>'[3]نتایج هفتگی'!$C41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f>'[4]نتایج هفتگی'!$C41</f>
+        <v>50</v>
+      </c>
+      <c r="H41" s="4">
         <f>'[5]نتایج هفتگی'!$C41</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <f>'[3]نتایج هفتگی'!$C41</f>
-        <v>50</v>
-      </c>
-      <c r="H41" s="4">
-        <f>'[4]نتایج هفتگی'!$C41</f>
         <v>6.666666666666667</v>
       </c>
       <c r="I41" s="2">
@@ -3202,15 +3202,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
+        <f>'[3]نتایج هفتگی'!$C42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f>'[4]نتایج هفتگی'!$C42</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H42" s="4">
         <f>'[5]نتایج هفتگی'!$C42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <f>'[3]نتایج هفتگی'!$C42</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="H42" s="4">
-        <f>'[4]نتایج هفتگی'!$C42</f>
         <v>-3.3333333333333335</v>
       </c>
       <c r="I42" s="2">
